--- a/gd/道具系统/道具icon需求.xlsx
+++ b/gd/道具系统/道具icon需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="29445" yWindow="420" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能道具" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="213">
   <si>
     <t>中文名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -831,6 +831,36 @@
   </si>
   <si>
     <t>黄金宝箱已开启，宝箱开着盖子（UI需求）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_BloodStone</t>
+  </si>
+  <si>
+    <t>icon_VitalityStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_SageStone</t>
+  </si>
+  <si>
+    <t>icon_BastionStone</t>
+  </si>
+  <si>
+    <t>icon_HasteStone</t>
+  </si>
+  <si>
+    <t>icon_MendingStone</t>
+  </si>
+  <si>
+    <t>icon_VolatileStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_SourceStone</t>
+  </si>
+  <si>
+    <t>icon_MorbidStone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -979,6 +1009,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2256886</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="2924175"/>
+          <a:ext cx="4314286" cy="4771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228091</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>46888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="3152775"/>
+          <a:ext cx="4076191" cy="5895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1270,7 +1381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1964,15 +2075,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="5" width="9" style="1"/>
-    <col min="6" max="7" width="45" style="1" customWidth="1"/>
+    <col min="6" max="6" width="62.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2006,6 +2118,9 @@
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>80</v>
       </c>
@@ -2020,6 +2135,9 @@
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>81</v>
       </c>
@@ -2034,6 +2152,9 @@
       <c r="B5" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>83</v>
       </c>
@@ -2048,6 +2169,9 @@
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>84</v>
       </c>
@@ -2062,6 +2186,9 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>85</v>
       </c>
@@ -2076,6 +2203,9 @@
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>86</v>
       </c>
@@ -2090,6 +2220,9 @@
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="F9" s="1" t="s">
         <v>87</v>
       </c>
@@ -2104,6 +2237,9 @@
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>88</v>
       </c>
@@ -2118,6 +2254,9 @@
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>89</v>
       </c>
@@ -2128,6 +2267,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/gd/道具系统/道具icon需求.xlsx
+++ b/gd/道具系统/道具icon需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="29445" yWindow="420" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="29445" yWindow="420" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="功能道具" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="266">
   <si>
     <t>中文名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公会活跃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公会贡献</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>繁荣度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一团橙红色的火苗，火苗较小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -644,14 +636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成长中的小树苗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会ID卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>妖力结晶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,10 +724,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>传说是天使的羽毛，可以让装备进阶到全新状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一根闪着金色光芒的羽毛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -752,10 +732,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水晶状结晶体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一张书籍残页，上面有“冰雪女王”的图像，羊皮纸样式，非平整样式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -770,46 +746,6 @@
     <t>活力道具3</t>
   </si>
   <si>
-    <t>鸡腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡腿外卖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全家桶鸡腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一堆鸡腿装袋的外卖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充营养</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吼吼吼，现已加入豪华午餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用餐纸包住鸡腿底端看起来方便携带的鸡腿，加内发光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用纸袋包住的鸡腿外卖。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡腿全家桶，红色桶底颜色。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>青铜宝箱未开启，宝箱关着盖子（UI需求）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -862,13 +798,269 @@
   <si>
     <t>icon_MorbidStone</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家贡献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_gongxianzhi</t>
+  </si>
+  <si>
+    <t>icon_xinyangzhili1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_xinyangzhili2</t>
+  </si>
+  <si>
+    <t>icon_xinyangzhili3</t>
+  </si>
+  <si>
+    <t>icon_jingyanjuanzhou1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_jingyanjuanzhou2</t>
+  </si>
+  <si>
+    <t>icon_jingyanjuanzhou3</t>
+  </si>
+  <si>
+    <t>icon_baoxiang0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_baoxiang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_baoxiang2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装在厚纸箱里的苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一小袋苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个苹果，可恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果(小)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一袋苹果（中）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一筐苹果(大)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复人物X活力值道具</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡副本的凭证</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个纸片的票券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_baoxiangyaoshi0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_baoxiangyaoshi1</t>
+  </si>
+  <si>
+    <t>icon_baoxiangyaoshi2</t>
+  </si>
+  <si>
+    <t>icon_chongwuqianghuashi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_chongwujinjieshi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_saodangquan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_zhaohuanzhishu0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_zhaohuanzhishu1</t>
+  </si>
+  <si>
+    <t>icon_qianghuashi0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_qianghuashi1</t>
+  </si>
+  <si>
+    <t>icon_qianghuashi2</t>
+  </si>
+  <si>
+    <t>icon_zhuangbeijinjieshi0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_huolizhi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_huolizhi2</t>
+  </si>
+  <si>
+    <t>icon_huolizhi3</t>
+  </si>
+  <si>
+    <t>icon_huoli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_towercoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_rongyudian2</t>
+  </si>
+  <si>
+    <t>icon_gonghuibi2</t>
+  </si>
+  <si>
+    <t>成长的芽苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险宝箱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会任务宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_renwubaoxiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会任务宝箱队长</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_leaderbaoxiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有金币标志的布袋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有信仰之力标志的布袋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有问号标志的布袋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会标志特定的宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会标志特定的宝箱感觉品质比上面的要高级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_maoxiandai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_maoxiandai2</t>
+  </si>
+  <si>
+    <t>icon_maoxiandai3</t>
+  </si>
+  <si>
+    <t>icon_zhuangbeijinjieshi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_gonhuigongpin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_gonhuigongpin2</t>
+  </si>
+  <si>
+    <t>icon_gonhuigongpin3</t>
+  </si>
+  <si>
+    <t>恶魔之羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵之羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一根闪着黑色光芒的羽毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一根闪着五彩光芒的羽毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下都有尖棱锥形晶体，不透明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶状结晶体通体不规则蓝色晶体，半透明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖力结晶2——紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖力结晶3——橙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖力结晶4——红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_zhuangbeijinjieshi2</t>
+  </si>
+  <si>
+    <t>icon_zhuangbeijinjieshi3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,8 +1105,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -930,6 +1135,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,7 +1177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -995,6 +1206,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1379,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G30"/>
+  <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1424,11 +1643,14 @@
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -1438,11 +1660,14 @@
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C4" t="s">
+        <v>201</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1452,11 +1677,14 @@
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -1466,11 +1694,14 @@
       <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1480,11 +1711,14 @@
       <c r="B7" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -1494,11 +1728,14 @@
       <c r="B8" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -1508,14 +1745,17 @@
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C9" t="s">
+        <v>206</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="1" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G10" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1525,14 +1765,17 @@
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C11" t="s">
+        <v>207</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G12" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1542,14 +1785,17 @@
       <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C13" t="s">
+        <v>208</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G14" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1559,8 +1805,11 @@
       <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="C15" t="s">
+        <v>218</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>37</v>
@@ -1573,8 +1822,11 @@
       <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C16" t="s">
+        <v>219</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>38</v>
@@ -1587,8 +1839,11 @@
       <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="C17" t="s">
+        <v>220</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>39</v>
@@ -1599,13 +1854,16 @@
         <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1613,13 +1871,16 @@
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1629,6 +1890,15 @@
       <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -1637,11 +1907,14 @@
       <c r="B21" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="F21" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1651,11 +1924,14 @@
       <c r="B22" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="F22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1663,13 +1939,16 @@
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -1677,13 +1956,16 @@
         <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -1691,13 +1973,16 @@
         <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -1705,75 +1990,210 @@
         <v>47</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="7"/>
+        <v>261</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>251</v>
+      </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" t="s">
+        <v>230</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" t="s">
+        <v>231</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="B32" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>197</v>
+      <c r="B33" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -1830,56 +2250,56 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1889,56 +2309,56 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1948,56 +2368,56 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2007,56 +2427,56 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -2075,7 +2495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -2119,13 +2539,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -2136,13 +2556,13 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -2150,16 +2570,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -2170,13 +2590,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -2187,13 +2607,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -2204,13 +2624,13 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -2221,13 +2641,13 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -2238,13 +2658,13 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -2255,13 +2675,13 @@
         <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2273,10 +2693,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G8"/>
+  <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2317,10 +2737,13 @@
         <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -2330,8 +2753,11 @@
       <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -2339,10 +2765,13 @@
         <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>198</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -2350,32 +2779,27 @@
         <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2433,10 +2857,10 @@
         <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -2447,15 +2871,15 @@
         <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/gd/道具系统/道具icon需求.xlsx
+++ b/gd/道具系统/道具icon需求.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="269">
   <si>
     <t>中文名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1004,16 +1004,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icon_gonhuigongpin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_gonhuigongpin2</t>
-  </si>
-  <si>
-    <t>icon_gonhuigongpin3</t>
-  </si>
-  <si>
     <t>恶魔之羽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1054,6 +1044,28 @@
   </si>
   <si>
     <t>icon_zhuangbeijinjieshi3</t>
+  </si>
+  <si>
+    <t>icon_baoxiang0_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_baoxiang1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_baoxiang2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_gonghuigongpin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_gonghuigongpin2</t>
+  </si>
+  <si>
+    <t>icon_gonghuigongpin3</t>
   </si>
 </sst>
 </file>
@@ -1600,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1754,6 +1766,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>263</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>183</v>
       </c>
@@ -1774,6 +1789,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>264</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>185</v>
       </c>
@@ -1794,6 +1812,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>265</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>187</v>
       </c>
@@ -2001,13 +2022,15 @@
         <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
+      <c r="A27" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="B27" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>251</v>
@@ -2016,16 +2039,16 @@
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
       <c r="G27" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -2035,10 +2058,10 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -2046,8 +2069,8 @@
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
-        <v>48</v>
+      <c r="A30" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>212</v>
@@ -2064,7 +2087,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>213</v>
@@ -2081,7 +2104,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>214</v>
@@ -2096,10 +2119,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>181</v>
-      </c>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="11" t="s">
         <v>238</v>
       </c>
@@ -2110,7 +2130,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="11" t="s">
         <v>238</v>
       </c>
@@ -2121,7 +2141,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="11" t="s">
         <v>238</v>
       </c>
@@ -2132,7 +2152,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="11" t="s">
         <v>239</v>
       </c>
@@ -2143,7 +2163,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="11" t="s">
         <v>241</v>
       </c>
@@ -2154,12 +2174,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="12" t="s">
         <v>175</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -2168,32 +2188,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B40" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/gd/道具系统/道具icon需求.xlsx
+++ b/gd/道具系统/道具icon需求.xlsx
@@ -4,22 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="29445" yWindow="420" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="28650" yWindow="30" windowWidth="29130" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能道具" sheetId="2" r:id="rId1"/>
     <sheet name="装备" sheetId="3" r:id="rId2"/>
     <sheet name="宝石（纹章）" sheetId="4" r:id="rId3"/>
     <sheet name="货币" sheetId="1" r:id="rId4"/>
-    <sheet name="宠物碎片" sheetId="6" r:id="rId5"/>
-    <sheet name="商城礼包" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="285">
   <si>
     <t>中文名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,22 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>万能宠物碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各类宠物碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“冰雪女王”故事残页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上古传说的残页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初级布道书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一张书籍残页，上面有“抽卡脸”的图像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>羊皮卷轴，上面的绳结装饰比较普通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,14 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>记载着“冰雪女王”故事的残页，集齐后可以合成召唤“冰雪女王”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记载着上古传说的残页，可以用来合成召唤。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一本和“抽蛋”一样的古书，上面画着“抽蛋的太阳”的图案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -468,10 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>此页以此类推，需要什么碎片就提什么需求。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -729,10 +695,6 @@
   </si>
   <si>
     <t>用于进阶装备的结晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一张书籍残页，上面有“冰雪女王”的图像，羊皮纸样式，非平整样式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1066,6 +1028,86 @@
   </si>
   <si>
     <t>icon_gonghuigongpin3</t>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_fangzhuang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_fangzhuang2</t>
+  </si>
+  <si>
+    <t>icon_fangzhuang3</t>
+  </si>
+  <si>
+    <t>icon_fangzhuang4</t>
+  </si>
+  <si>
+    <t>icon_fangzhuang5</t>
+  </si>
+  <si>
+    <t>icon_fangzhuang6</t>
+  </si>
+  <si>
+    <t>icon_wuzhuang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_wuzhuang2</t>
+  </si>
+  <si>
+    <t>icon_wuzhuang3</t>
+  </si>
+  <si>
+    <t>icon_wuzhuang4</t>
+  </si>
+  <si>
+    <t>icon_wuzhuang5</t>
+  </si>
+  <si>
+    <t>icon_wuzhuang6</t>
+  </si>
+  <si>
+    <t>icon_fazhuang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_fazhuang2</t>
+  </si>
+  <si>
+    <t>icon_fazhuang3</t>
+  </si>
+  <si>
+    <t>icon_fazhuang4</t>
+  </si>
+  <si>
+    <t>icon_fazhuang5</t>
+  </si>
+  <si>
+    <t>icon_fazhuang6</t>
+  </si>
+  <si>
+    <t>icon_zhizhuang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_zhizhuang2</t>
+  </si>
+  <si>
+    <t>icon_zhizhuang3</t>
+  </si>
+  <si>
+    <t>icon_zhizhuang4</t>
+  </si>
+  <si>
+    <t>icon_zhizhuang5</t>
+  </si>
+  <si>
+    <t>icon_zhizhuang6</t>
   </si>
 </sst>
 </file>
@@ -1612,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1656,13 +1698,13 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -1673,13 +1715,13 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1690,13 +1732,13 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -1704,16 +1746,16 @@
         <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1721,16 +1763,16 @@
         <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -1738,16 +1780,16 @@
         <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -1758,19 +1800,19 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1781,19 +1823,19 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1804,19 +1846,19 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1827,10 +1869,10 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>37</v>
@@ -1844,10 +1886,10 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>38</v>
@@ -1861,10 +1903,10 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>39</v>
@@ -1875,16 +1917,16 @@
         <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1892,16 +1934,16 @@
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1912,13 +1954,13 @@
         <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1929,13 +1971,13 @@
         <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1946,13 +1988,13 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1960,16 +2002,16 @@
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -1977,16 +2019,16 @@
         <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -1994,16 +2036,16 @@
         <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -2011,18 +2053,18 @@
         <v>47</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -2030,25 +2072,25 @@
         <v>48</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
       <c r="G27" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -2058,10 +2100,10 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -2070,150 +2112,150 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C30" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C31" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C32" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="11" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="11" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="11" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="11" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="11" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="12" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="13"/>
       <c r="G38" s="12" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="12" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B40" s="12" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2227,15 +2269,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9" style="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="45" style="1" customWidth="1"/>
     <col min="7" max="7" width="44.875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
@@ -2270,58 +2313,75 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>261</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>266</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -2329,58 +2389,75 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>267</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
+      </c>
+      <c r="C11" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
+      </c>
+      <c r="C12" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>156</v>
+      </c>
+      <c r="C14" t="s">
+        <v>272</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -2388,58 +2465,75 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
+        <v>273</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
+      </c>
+      <c r="C16" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
+      </c>
+      <c r="C17" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
+      </c>
+      <c r="C18" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>277</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>278</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -2447,58 +2541,75 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
+      </c>
+      <c r="C21" t="s">
+        <v>279</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
+      </c>
+      <c r="C22" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
+      </c>
+      <c r="C23" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
+      </c>
+      <c r="C24" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
+      </c>
+      <c r="C25" t="s">
+        <v>283</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>166</v>
+      </c>
+      <c r="C26" t="s">
+        <v>284</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -2516,7 +2627,7 @@
   <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2559,13 +2670,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -2576,13 +2687,13 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -2590,16 +2701,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -2610,13 +2721,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -2627,13 +2738,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -2644,13 +2755,13 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -2661,13 +2772,13 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -2678,13 +2789,13 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -2695,13 +2806,13 @@
         <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2713,10 +2824,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G7"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2754,72 +2865,97 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2827,101 +2963,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9" style="1"/>
-    <col min="6" max="7" width="45.125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>